--- a/Results/2022_04_07/620_Project22022_04_07.xlsx
+++ b/Results/2022_04_07/620_Project22022_04_07.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xueti\Dropbox (University of Michigan)\Umich\class\term2\620\Group Project\620_Project2\Results\2022_04_07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF659C0-6F86-406F-AB37-6307C29DFE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-23790" yWindow="1020" windowWidth="20040" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table3" r:id="rId3" sheetId="1"/>
+    <sheet name="Table3" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="497">
   <si>
     <t>Table3a Mean difference of Wake-up time before and after intervention</t>
   </si>
@@ -47,1110 +56,1501 @@
     <t>Non-School day</t>
   </si>
   <si>
-    <t>-8.806</t>
-  </si>
-  <si>
-    <t>-4.968</t>
-  </si>
-  <si>
-    <t>-4.969</t>
-  </si>
-  <si>
-    <t>-1.311</t>
-  </si>
-  <si>
-    <t>6.502</t>
-  </si>
-  <si>
-    <t>-11.871</t>
+    <t>-8.414</t>
+  </si>
+  <si>
+    <t>-10.554</t>
+  </si>
+  <si>
+    <t>-0.008</t>
+  </si>
+  <si>
+    <t>-3.787</t>
+  </si>
+  <si>
+    <t>1.337</t>
+  </si>
+  <si>
+    <t>-12.648</t>
+  </si>
+  <si>
+    <t>-1.066</t>
   </si>
   <si>
     <t>-1.113</t>
   </si>
   <si>
-    <t>-0.532</t>
-  </si>
-  <si>
-    <t>-0.56</t>
-  </si>
-  <si>
-    <t>-0.162</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>-0.925</t>
-  </si>
-  <si>
-    <t>-24.943,7.332</t>
-  </si>
-  <si>
-    <t>-24.106,14.17</t>
-  </si>
-  <si>
-    <t>-23.078,13.141</t>
-  </si>
-  <si>
-    <t>-17.853,15.231</t>
-  </si>
-  <si>
-    <t>-13.492,26.497</t>
-  </si>
-  <si>
-    <t>-38.042,14.3</t>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>-0.474</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>-0.966</t>
+  </si>
+  <si>
+    <t>-24.52,7.691</t>
+  </si>
+  <si>
+    <t>-29.887,8.78</t>
+  </si>
+  <si>
+    <t>-18.589,18.573</t>
+  </si>
+  <si>
+    <t>-20.092,12.518</t>
+  </si>
+  <si>
+    <t>-14.616,17.29</t>
+  </si>
+  <si>
+    <t>-39.398,14.102</t>
+  </si>
+  <si>
+    <t>0.295</t>
   </si>
   <si>
     <t>0.274</t>
   </si>
   <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>Table3b Factors crude influence on the mean difference of Wake-up time before and after intervention A</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>workmate</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>non.academic</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>course.hours</t>
+  </si>
+  <si>
+    <t>siblings</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>procrastination</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Coefficient(95%CI)</t>
+  </si>
+  <si>
+    <t>-13.69(-40.29,12.92)</t>
+  </si>
+  <si>
+    <t>5.34(-14.23,24.92)</t>
+  </si>
+  <si>
+    <t>15.22(-3.72,34.16)</t>
+  </si>
+  <si>
+    <t>-0.41(-8.55,7.74)</t>
+  </si>
+  <si>
+    <t>9.48(0.48,18.48)</t>
+  </si>
+  <si>
+    <t>-10.17(-26.26,5.92)</t>
+  </si>
+  <si>
+    <t>0.34(-2.75,3.44)</t>
+  </si>
+  <si>
+    <t>4.75(-12.42,21.91)</t>
+  </si>
+  <si>
+    <t>-1.28(-2.47,-0.09)</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>4.52(-51.69,60.74)</t>
+  </si>
+  <si>
+    <t>5.95(-27.84,39.74)</t>
+  </si>
+  <si>
+    <t>-41.16(-70.43,-11.89)</t>
+  </si>
+  <si>
+    <t>7.22(-25.46,39.89)</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.035*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.871</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.007*</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>-8.12(-40.5,24.26)</t>
+  </si>
+  <si>
+    <t>0.72(-22.89,24.34)</t>
+  </si>
+  <si>
+    <t>8.02(-15.53,31.56)</t>
+  </si>
+  <si>
+    <t>2.33(-7.41,12.07)</t>
+  </si>
+  <si>
+    <t>10.77(-0.12,21.66)</t>
+  </si>
+  <si>
+    <t>-6.19(-25.9,13.52)</t>
+  </si>
+  <si>
+    <t>-0.18(-3.9,3.54)</t>
+  </si>
+  <si>
+    <t>3.9(-16.76,24.57)</t>
+  </si>
+  <si>
+    <t>-0.87(-2.37,0.64)</t>
+  </si>
+  <si>
+    <t>9.08(-58.35,76.51)</t>
+  </si>
+  <si>
+    <t>-6.58(-47.16,33.99)</t>
+  </si>
+  <si>
+    <t>-44.85(-80.82,-8.87)</t>
+  </si>
+  <si>
+    <t>-3.08(-42.43,36.26)</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.016*</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>-21.55(-51.76,8.65)</t>
+  </si>
+  <si>
+    <t>12(-10.25,34.25)</t>
+  </si>
+  <si>
+    <t>26.2(5.58,46.81)</t>
+  </si>
+  <si>
+    <t>-4.59(-13.84,4.65)</t>
+  </si>
+  <si>
+    <t>7.19(-3.64,18.02)</t>
+  </si>
+  <si>
+    <t>-15.72(-33.87,2.43)</t>
+  </si>
+  <si>
+    <t>1.39(-2.15,4.93)</t>
+  </si>
+  <si>
+    <t>6.95(-12.79,26.69)</t>
+  </si>
+  <si>
+    <t>-1.9(-3.2,-0.61)</t>
+  </si>
+  <si>
+    <t>-0.36(-65.25,64.53)</t>
+  </si>
+  <si>
+    <t>26.86(-10.91,64.62)</t>
+  </si>
+  <si>
+    <t>-32.62(-68.75,3.52)</t>
+  </si>
+  <si>
+    <t>24.15(-12.59,60.89)</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.014*</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.005*</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Table3c Factors crude influence on the mean difference of Wake-up time before and after intervention B</t>
+  </si>
+  <si>
+    <t>-27.37(-52.83,-1.92)</t>
+  </si>
+  <si>
+    <t>-2.91(-22.8,16.97)</t>
+  </si>
+  <si>
+    <t>6.38(-13.49,26.25)</t>
+  </si>
+  <si>
+    <t>0.09(-8.16,8.34)</t>
+  </si>
+  <si>
+    <t>8.64(-0.61,17.88)</t>
+  </si>
+  <si>
+    <t>-6.27(-22.84,10.3)</t>
+  </si>
+  <si>
+    <t>0.58(-2.55,3.71)</t>
+  </si>
+  <si>
+    <t>4.55(-12.84,21.94)</t>
+  </si>
+  <si>
+    <t>-1.42(-2.6,-0.24)</t>
+  </si>
+  <si>
+    <t>-14.76(-71.44,41.91)</t>
+  </si>
+  <si>
+    <t>15.15(-18.66,48.97)</t>
+  </si>
+  <si>
+    <t>-33.09(-64.19,-2)</t>
+  </si>
+  <si>
+    <t>6.98(-26.11,40.07)</t>
+  </si>
+  <si>
+    <t>0.036*</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.02*</t>
+  </si>
+  <si>
     <t>0.599</t>
   </si>
   <si>
-    <t>0.58</t>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.038*</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>-19.17(-45.03,6.7)</t>
+  </si>
+  <si>
+    <t>-6.8(-26.12,12.52)</t>
+  </si>
+  <si>
+    <t>1.29(-18.29,20.87)</t>
+  </si>
+  <si>
+    <t>1.11(-6.95,9.17)</t>
+  </si>
+  <si>
+    <t>1.43(-8.14,10.99)</t>
+  </si>
+  <si>
+    <t>-2.15(-18.5,14.21)</t>
+  </si>
+  <si>
+    <t>1.81(-1.18,4.81)</t>
+  </si>
+  <si>
+    <t>-1.87(-18.95,15.21)</t>
+  </si>
+  <si>
+    <t>-1.43(-2.58,-0.28)</t>
+  </si>
+  <si>
+    <t>-9.06(-64.67,46.55)</t>
+  </si>
+  <si>
+    <t>24.18(-8.13,56.48)</t>
+  </si>
+  <si>
+    <t>-29.26(-60.12,1.6)</t>
+  </si>
+  <si>
+    <t>1.69(-30.79,34.16)</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>-36.59(-79.01,5.83)</t>
+  </si>
+  <si>
+    <t>-1.01(-33.74,31.72)</t>
+  </si>
+  <si>
+    <t>9.44(-23.5,42.37)</t>
+  </si>
+  <si>
+    <t>-2.26(-15.69,11.18)</t>
+  </si>
+  <si>
+    <t>18.04(3.78,32.3)</t>
+  </si>
+  <si>
+    <t>-12.79(-39.42,13.83)</t>
+  </si>
+  <si>
+    <t>-1.05(-6.11,4)</t>
+  </si>
+  <si>
+    <t>13.59(-14.22,41.4)</t>
+  </si>
+  <si>
+    <t>-1.28(-3.35,0.78)</t>
+  </si>
+  <si>
+    <t>-20.2(-112.03,71.64)</t>
+  </si>
+  <si>
+    <t>6.5(-49.39,62.38)</t>
+  </si>
+  <si>
+    <t>-35.02(-88.61,18.57)</t>
+  </si>
+  <si>
+    <t>8.09(-46.35,62.53)</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.015*</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>Table3d Factors adjusted influence on the mean difference of Wake-up time before and after intervention A</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>-118.05(-351.77,115.66)</t>
+  </si>
+  <si>
+    <t>8.81(-21.05,38.66)</t>
+  </si>
+  <si>
+    <t>-54.74(-109.9,0.42)</t>
+  </si>
+  <si>
+    <t>61.05(8.23,113.88)</t>
+  </si>
+  <si>
+    <t>-0.83(-9.71,8.04)</t>
+  </si>
+  <si>
+    <t>7.62(-1.73,16.96)</t>
+  </si>
+  <si>
+    <t>11.79(-10.88,34.45)</t>
+  </si>
+  <si>
+    <t>-0.56(-5.31,4.2)</t>
+  </si>
+  <si>
+    <t>19.35(-12.06,50.75)</t>
+  </si>
+  <si>
+    <t>0.18(-1.51,1.87)</t>
+  </si>
+  <si>
+    <t>-3.94(-74.66,66.79)</t>
+  </si>
+  <si>
+    <t>2.73(-40.06,45.52)</t>
+  </si>
+  <si>
+    <t>-68.84(-110.13,-27.55)</t>
+  </si>
+  <si>
+    <t>19.11(-20.27,58.5)</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.026*</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>0.003*</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>-242.19(-575.3,90.91)</t>
+  </si>
+  <si>
+    <t>19.47(-23.08,62.03)</t>
+  </si>
+  <si>
+    <t>-62.02(-140.63,16.6)</t>
+  </si>
+  <si>
+    <t>60.86(-14.43,136.15)</t>
+  </si>
+  <si>
+    <t>3.16(-9.49,15.81)</t>
+  </si>
+  <si>
+    <t>10.34(-2.98,23.66)</t>
+  </si>
+  <si>
+    <t>18.92(-13.39,51.22)</t>
+  </si>
+  <si>
+    <t>-0.55(-7.33,6.22)</t>
+  </si>
+  <si>
+    <t>18.9(-25.86,63.66)</t>
+  </si>
+  <si>
+    <t>0.5(-1.91,2.91)</t>
+  </si>
+  <si>
+    <t>-8.39(-109.2,92.41)</t>
+  </si>
+  <si>
+    <t>-9.13(-70.11,51.86)</t>
+  </si>
+  <si>
+    <t>-84.22(-143.06,-25.37)</t>
+  </si>
+  <si>
+    <t>9.47(-46.66,65.6)</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>0.008*</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>88.11(-145.42,321.64)</t>
+  </si>
+  <si>
+    <t>-8.37(-38.21,21.46)</t>
+  </si>
+  <si>
+    <t>-47.59(-102.71,7.53)</t>
+  </si>
+  <si>
+    <t>65.9(13.11,118.68)</t>
+  </si>
+  <si>
+    <t>-7.4(-16.27,1.47)</t>
+  </si>
+  <si>
+    <t>2.42(-6.91,11.76)</t>
+  </si>
+  <si>
+    <t>2.79(-19.86,25.44)</t>
+  </si>
+  <si>
+    <t>-0.51(-5.26,4.24)</t>
+  </si>
+  <si>
+    <t>22.73(-8.65,54.11)</t>
+  </si>
+  <si>
+    <t>-0.19(-1.88,1.5)</t>
+  </si>
+  <si>
+    <t>10.05(-60.62,80.73)</t>
+  </si>
+  <si>
+    <t>24.34(-18.42,67.09)</t>
+  </si>
+  <si>
+    <t>-45.21(-86.47,-3.96)</t>
+  </si>
+  <si>
+    <t>32.8(-6.55,72.15)</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.017*</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.033*</t>
+  </si>
+  <si>
+    <t>Table3e Factors adjusted influence on the mean difference of Wake-up time before and after intervention B</t>
+  </si>
+  <si>
+    <t>-199.33(-457.6,58.94)</t>
+  </si>
+  <si>
+    <t>-12.37(-45.37,20.62)</t>
+  </si>
+  <si>
+    <t>-61.03(-121.99,-0.07)</t>
+  </si>
+  <si>
+    <t>52.92(-5.45,111.3)</t>
+  </si>
+  <si>
+    <t>3.31(-6.5,13.12)</t>
+  </si>
+  <si>
+    <t>9.56(-0.77,19.89)</t>
+  </si>
+  <si>
+    <t>6.47(-18.58,31.52)</t>
+  </si>
+  <si>
+    <t>0.17(-5.08,5.42)</t>
+  </si>
+  <si>
+    <t>7.61(-27.09,42.32)</t>
+  </si>
+  <si>
+    <t>0.11(-1.75,1.98)</t>
+  </si>
+  <si>
+    <t>-58.2(-136.36,19.96)</t>
+  </si>
+  <si>
+    <t>1.45(-45.83,48.74)</t>
+  </si>
+  <si>
+    <t>-40.67(-86.29,4.96)</t>
+  </si>
+  <si>
+    <t>33.66(-9.86,77.18)</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.05*</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>-120.66(-412.26,170.94)</t>
+  </si>
+  <si>
+    <t>-7.19(-44.44,30.06)</t>
+  </si>
+  <si>
+    <t>-54.96(-123.78,13.87)</t>
+  </si>
+  <si>
+    <t>44.52(-21.39,110.43)</t>
+  </si>
+  <si>
+    <t>5.35(-5.72,16.43)</t>
+  </si>
+  <si>
+    <t>2.45(-9.21,14.11)</t>
+  </si>
+  <si>
+    <t>4.28(-24,32.56)</t>
+  </si>
+  <si>
+    <t>2.94(-2.99,8.87)</t>
+  </si>
+  <si>
+    <t>-8.76(-47.95,30.42)</t>
+  </si>
+  <si>
+    <t>-0.03(-2.14,2.07)</t>
+  </si>
+  <si>
+    <t>-32.03(-120.28,56.21)</t>
+  </si>
+  <si>
+    <t>4.77(-48.62,58.15)</t>
+  </si>
+  <si>
+    <t>-32.85(-84.37,18.66)</t>
+  </si>
+  <si>
+    <t>18.68(-30.46,67.82)</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>-297.82(-775.32,179.68)</t>
+  </si>
+  <si>
+    <t>-19.49(-78.76,39.78)</t>
+  </si>
+  <si>
+    <t>-64.26(-174.25,45.72)</t>
+  </si>
+  <si>
+    <t>58.9(-46.97,164.77)</t>
+  </si>
+  <si>
+    <t>0.69(-17.57,18.95)</t>
+  </si>
+  <si>
+    <t>19.04(0.57,37.51)</t>
+  </si>
+  <si>
+    <t>7.58(-37.13,52.29)</t>
+  </si>
+  <si>
+    <t>-3.36(-13.05,6.33)</t>
+  </si>
+  <si>
+    <t>27.46(-36.66,91.58)</t>
+  </si>
+  <si>
+    <t>0.21(-3.12,3.54)</t>
+  </si>
+  <si>
+    <t>-93.44(-238.01,51.13)</t>
+  </si>
+  <si>
+    <t>-4.27(-94.88,86.33)</t>
+  </si>
+  <si>
+    <t>-48.53(-128.95,31.88)</t>
+  </si>
+  <si>
+    <t>51.74(-28.96,132.43)</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>0.044*</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>Total Screen Time</t>
+  </si>
+  <si>
+    <t>Social Screen Time</t>
+  </si>
+  <si>
+    <t># of pickups</t>
+  </si>
+  <si>
+    <t>Table3 Mean difference of Screen Usage before and after intervention stratified by School Day</t>
+  </si>
+  <si>
+    <t>Numbers of pick ups</t>
+  </si>
+  <si>
+    <t>Mean(95%CI)</t>
+  </si>
+  <si>
+    <t>-19.15(-41.89,3.59)</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>1.88(-10.34,14.11)</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>3.37(-3,9.75)</t>
+  </si>
+  <si>
+    <t>School Day</t>
+  </si>
+  <si>
+    <t>-13.48(-37.3,10.35)</t>
+  </si>
+  <si>
+    <t>1.6(-12.12,15.31)</t>
+  </si>
+  <si>
+    <t>5.67(-0.56,11.9)</t>
+  </si>
+  <si>
+    <t>Non-School Day</t>
+  </si>
+  <si>
+    <t>-24.92(-56.48,6.64)</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>2.81(-16.7,22.32)</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>-0.68(-10.22,8.87)</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>-12.19(-57.42,33.04)</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>1.31(-31.32,33.94)</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>-3.11(-16.98,10.76)</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>20.98(-15.59,57.56)</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>10.59(-5.98,27.17)</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>5.73(-2.85,14.32)</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>-36.81(-79.78,6.15)</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-1.45(-24.84,21.93)</t>
+  </si>
+  <si>
+    <t>7.56(-3.02,18.14)</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>-28.89(-70.2,12.42)</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>-4.12(-30.6,22.35)</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>16.33(1.7,30.96)</t>
+  </si>
+  <si>
+    <t>0.03*</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>-52.39(-87.29,-17.49)</t>
+  </si>
+  <si>
+    <t>-5.75(-36.09,24.59)</t>
+  </si>
+  <si>
+    <t>4.3(-9.32,17.92)</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>-10.34(-56.04,35.35)</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>-2.77(-29.06,23.53)</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.33(-15.86,16.52)</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>-12.75(-58.95,33.45)</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>16.88(-11.49,45.24)</t>
+  </si>
+  <si>
+    <t>-6(-17.91,5.91)</t>
+  </si>
+  <si>
+    <t>-12.92(-42.34,16.51)</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>-1.46(-14.54,11.62)</t>
+  </si>
+  <si>
+    <t>3.14(-5.64,11.92)</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>-6.66(-36.07,22.75)</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>-3.53(-18.53,11.48)</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>3.25(-6.58,13.09)</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>-20.12(-58.52,18.28)</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>1.44(-16.79,19.68)</t>
   </si>
   <si>
     <t>0.873</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>Table3b Factors crude influence on the mean difference of Wake-up time before and after intervention A</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>workmate</t>
-  </si>
-  <si>
-    <t>academic</t>
-  </si>
-  <si>
-    <t>non.academic</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>course.hours</t>
-  </si>
-  <si>
-    <t>siblings</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>devices</t>
-  </si>
-  <si>
-    <t>procrastination</t>
-  </si>
-  <si>
-    <t>pets</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Coefficient(95%CI)</t>
-  </si>
-  <si>
-    <t>-13.25(-39.94,13.44)</t>
-  </si>
-  <si>
-    <t>4.87(-14.76,24.5)</t>
-  </si>
-  <si>
-    <t>15.22(-3.76,34.2)</t>
-  </si>
-  <si>
-    <t>-0.36(-8.53,7.8)</t>
-  </si>
-  <si>
-    <t>9.48(0.46,18.5)</t>
-  </si>
-  <si>
-    <t>-10.26(-26.37,5.86)</t>
-  </si>
-  <si>
-    <t>0.37(-2.73,3.48)</t>
-  </si>
-  <si>
-    <t>4.45(-12.77,21.66)</t>
-  </si>
-  <si>
-    <t>-1.29(-2.48,-0.1)</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>4.96(-51.37,61.28)</t>
-  </si>
-  <si>
-    <t>6.58(-27.26,40.42)</t>
-  </si>
-  <si>
-    <t>-40.26(-69.78,-10.75)</t>
-  </si>
-  <si>
-    <t>6.43(-26.33,39.2)</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.112</t>
-  </si>
-  <si>
-    <t>0.928</t>
-  </si>
-  <si>
-    <t>0.04*</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.035*</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.009*</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>-7.02(-38.54,24.51)</t>
-  </si>
-  <si>
-    <t>8.4(-14.95,31.76)</t>
-  </si>
-  <si>
-    <t>13.33(-9.66,36.33)</t>
-  </si>
-  <si>
-    <t>9.07(-1.88,20.02)</t>
-  </si>
-  <si>
-    <t>7.6(-3.63,18.84)</t>
-  </si>
-  <si>
-    <t>-4.38(-23.91,15.15)</t>
-  </si>
-  <si>
-    <t>-0.49(-4.03,3.05)</t>
-  </si>
-  <si>
-    <t>4.73(-15.13,24.58)</t>
-  </si>
-  <si>
-    <t>-0.57(-2.19,1.06)</t>
-  </si>
-  <si>
-    <t>2.95(-61.14,67.04)</t>
-  </si>
-  <si>
-    <t>-3.82(-44.02,36.39)</t>
-  </si>
-  <si>
-    <t>-36.14(-72.71,0.43)</t>
-  </si>
-  <si>
-    <t>11.11(-27.71,49.93)</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.467</t>
-  </si>
-  <si>
-    <t>0.245</t>
+    <t>2.87(-8.35,14.09)</t>
+  </si>
+  <si>
+    <t>-4.32(-44.02,35.37)</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>-4.98(-22,12.03)</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.32(-13.78,14.42)</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>36.98(-8.48,82.44)</t>
+  </si>
+  <si>
+    <t>3.47(-19.04,25.98)</t>
+  </si>
+  <si>
+    <t>10.23(-5.26,25.73)</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>-30.75(-67.87,6.37)</t>
   </si>
   <si>
     <t>0.101</t>
   </si>
   <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.777</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.926</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>-16.18(-46.04,13.68)</t>
-  </si>
-  <si>
-    <t>5.97(-16.04,27.98)</t>
-  </si>
-  <si>
-    <t>20.33(-0.57,41.23)</t>
-  </si>
-  <si>
-    <t>-3.31(-12.39,5.77)</t>
-  </si>
-  <si>
-    <t>8.39(-2.02,18.8)</t>
-  </si>
-  <si>
-    <t>-19.7(-36.78,-2.63)</t>
-  </si>
-  <si>
-    <t>1.53(-1.91,4.97)</t>
-  </si>
-  <si>
-    <t>7(-12.23,26.23)</t>
-  </si>
-  <si>
-    <t>-1.8(-3.07,-0.52)</t>
-  </si>
-  <si>
-    <t>5.12(-58.1,68.33)</t>
-  </si>
-  <si>
-    <t>34.59(-1.24,70.42)</t>
-  </si>
-  <si>
-    <t>-35.52(-70.24,-0.81)</t>
-  </si>
-  <si>
-    <t>16.54(-19.81,52.89)</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.025*</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.463</t>
-  </si>
-  <si>
-    <t>0.007*</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.045*</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>Table3c Factors crude influence on the mean difference of Wake-up time before and after intervention B</t>
-  </si>
-  <si>
-    <t>-26.03(-51.81,-0.26)</t>
-  </si>
-  <si>
-    <t>-1.52(-22.07,19.02)</t>
-  </si>
-  <si>
-    <t>8.34(-11.9,28.58)</t>
-  </si>
-  <si>
-    <t>0.91(-7.52,9.35)</t>
-  </si>
-  <si>
-    <t>2.56(-8.18,13.3)</t>
-  </si>
-  <si>
-    <t>-1.37(-18.5,15.77)</t>
-  </si>
-  <si>
-    <t>1.56(-1.58,4.7)</t>
-  </si>
-  <si>
-    <t>0.36(-17.66,18.39)</t>
-  </si>
-  <si>
-    <t>-1.79(-2.91,-0.68)</t>
-  </si>
-  <si>
-    <t>-8.82(-65.71,48.08)</t>
-  </si>
-  <si>
-    <t>23.24(-10.85,57.33)</t>
-  </si>
-  <si>
-    <t>-24.03(-56.63,8.57)</t>
-  </si>
-  <si>
-    <t>12.2(-21.19,45.6)</t>
-  </si>
-  <si>
-    <t>0.048*</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>0.872</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>0.003*</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>-16.94(-49,15.13)</t>
-  </si>
-  <si>
-    <t>11.43(-13.14,35.99)</t>
-  </si>
-  <si>
-    <t>19.35(-4.2,42.89)</t>
-  </si>
-  <si>
-    <t>7.22(-4.66,19.09)</t>
-  </si>
-  <si>
-    <t>-2.96(-16.39,10.46)</t>
-  </si>
-  <si>
-    <t>3.5(-17.15,24.14)</t>
-  </si>
-  <si>
-    <t>2.05(-1.57,5.67)</t>
-  </si>
-  <si>
-    <t>0.86(-20.28,22)</t>
-  </si>
-  <si>
-    <t>-2.12(-3.59,-0.64)</t>
-  </si>
-  <si>
-    <t>1.76(-64.23,67.75)</t>
-  </si>
-  <si>
-    <t>16.36(-25.73,58.44)</t>
-  </si>
-  <si>
-    <t>-19.49(-59.66,20.68)</t>
-  </si>
-  <si>
-    <t>31.28(-7.54,70.11)</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.934</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>-31.68(-74.08,10.73)</t>
-  </si>
-  <si>
-    <t>-0.03(-32,31.94)</t>
-  </si>
-  <si>
-    <t>8.6(-23.36,40.57)</t>
-  </si>
-  <si>
-    <t>3.21(-9.98,16.39)</t>
-  </si>
-  <si>
-    <t>16.83(2.42,31.23)</t>
-  </si>
-  <si>
-    <t>-15.51(-41.74,10.73)</t>
-  </si>
-  <si>
-    <t>-1.11(-6.13,3.91)</t>
-  </si>
-  <si>
-    <t>12.98(-14.64,40.61)</t>
-  </si>
-  <si>
-    <t>-1.04(-3.08,1)</t>
-  </si>
-  <si>
-    <t>-20.98(-112.05,70.07)</t>
-  </si>
-  <si>
-    <t>13.32(-41.48,68.13)</t>
-  </si>
-  <si>
-    <t>-36.66(-88.6,15.27)</t>
-  </si>
-  <si>
-    <t>14.61(-38.39,67.61)</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.998</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.024*</t>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>Table3d Factors adjusted influence on the mean difference of Wake-up time before and after intervention A</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>-127.84(-364.66,108.98)</t>
-  </si>
-  <si>
-    <t>8.56(-21.7,38.81)</t>
-  </si>
-  <si>
-    <t>-58.57(-114.47,-2.68)</t>
-  </si>
-  <si>
-    <t>64.52(10.99,118.05)</t>
-  </si>
-  <si>
-    <t>-0.29(-9.28,8.71)</t>
-  </si>
-  <si>
-    <t>7.57(-1.89,17.04)</t>
-  </si>
-  <si>
-    <t>10.98(-11.99,33.95)</t>
-  </si>
-  <si>
-    <t>-0.36(-5.18,4.45)</t>
-  </si>
-  <si>
-    <t>17.73(-14.09,49.56)</t>
-  </si>
-  <si>
-    <t>0.22(-1.49,1.93)</t>
-  </si>
-  <si>
-    <t>-5.43(-77.1,66.24)</t>
-  </si>
-  <si>
-    <t>1.55(-41.8,44.91)</t>
-  </si>
-  <si>
-    <t>-66.88(-108.71,-25.04)</t>
-  </si>
-  <si>
-    <t>18.65(-21.26,58.56)</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.041*</t>
-  </si>
-  <si>
-    <t>0.021*</t>
-  </si>
-  <si>
-    <t>0.947</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>-223.91(-617.56,169.73)</t>
-  </si>
-  <si>
-    <t>5.33(-39.89,50.56)</t>
-  </si>
-  <si>
-    <t>-68.59(-148.54,11.37)</t>
-  </si>
-  <si>
-    <t>77.68(-3.41,158.77)</t>
-  </si>
-  <si>
-    <t>3.21(-13.49,19.9)</t>
-  </si>
-  <si>
-    <t>7.22(-7.38,21.81)</t>
-  </si>
-  <si>
-    <t>19.55(-15.8,54.9)</t>
-  </si>
-  <si>
-    <t>-0.45(-7.44,6.54)</t>
-  </si>
-  <si>
-    <t>22.23(-26.39,70.84)</t>
-  </si>
-  <si>
-    <t>0.91(-1.62,3.44)</t>
-  </si>
-  <si>
-    <t>-7.39(-115.51,100.72)</t>
-  </si>
-  <si>
-    <t>-17.8(-82.49,46.9)</t>
-  </si>
-  <si>
-    <t>-78.08(-145.28,-10.87)</t>
-  </si>
-  <si>
-    <t>8.62(-52.11,69.36)</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.805</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.893</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
-    <t>0.886</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.026*</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>36.28(-194.31,266.87)</t>
-  </si>
-  <si>
-    <t>4.63(-24.83,34.09)</t>
-  </si>
-  <si>
-    <t>-50.24(-104.66,4.19)</t>
-  </si>
-  <si>
-    <t>60.06(7.94,112.18)</t>
-  </si>
-  <si>
-    <t>-5.49(-14.25,3.27)</t>
-  </si>
-  <si>
-    <t>4.04(-5.18,13.26)</t>
-  </si>
-  <si>
-    <t>0.64(-21.72,23.01)</t>
-  </si>
-  <si>
-    <t>-0.66(-5.35,4.03)</t>
-  </si>
-  <si>
-    <t>20.23(-10.76,51.22)</t>
-  </si>
-  <si>
-    <t>-0.35(-2.02,1.32)</t>
-  </si>
-  <si>
-    <t>9.21(-60.57,78.99)</t>
-  </si>
-  <si>
-    <t>32.98(-9.23,75.2)</t>
-  </si>
-  <si>
-    <t>-49.37(-90.11,-8.63)</t>
-  </si>
-  <si>
-    <t>28.2(-10.66,67.06)</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.068</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.02*</t>
-  </si>
-  <si>
-    <t>0.145</t>
-  </si>
-  <si>
-    <t>Table3e Factors adjusted influence on the mean difference of Wake-up time before and after intervention B</t>
-  </si>
-  <si>
-    <t>-77.14(-415.81,261.53)</t>
-  </si>
-  <si>
-    <t>-18.99(-57.1,19.12)</t>
-  </si>
-  <si>
-    <t>-46.77(-115.45,21.91)</t>
-  </si>
-  <si>
-    <t>44.77(-21.27,110.81)</t>
-  </si>
-  <si>
-    <t>4.01(-7.17,15.18)</t>
-  </si>
-  <si>
-    <t>0.84(-13.36,15.04)</t>
-  </si>
-  <si>
-    <t>5.65(-22.52,33.82)</t>
-  </si>
-  <si>
-    <t>1.62(-4.41,7.64)</t>
-  </si>
-  <si>
-    <t>-2.51(-42,36.98)</t>
-  </si>
-  <si>
-    <t>-0.56(-2.71,1.58)</t>
-  </si>
-  <si>
-    <t>-25.89(-116.82,65.03)</t>
-  </si>
-  <si>
-    <t>11.58(-43.48,66.65)</t>
-  </si>
-  <si>
-    <t>-15.79(-70.92,39.33)</t>
-  </si>
-  <si>
-    <t>17.47(-35,69.93)</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.895</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>24.38(-448.16,496.91)</t>
-  </si>
-  <si>
-    <t>-25.36(-74.69,23.97)</t>
-  </si>
-  <si>
-    <t>-47.81(-132.48,36.85)</t>
-  </si>
-  <si>
-    <t>62.77(-23.54,149.08)</t>
-  </si>
-  <si>
-    <t>1.28(-16.53,19.09)</t>
-  </si>
-  <si>
-    <t>-2.52(-20.6,15.56)</t>
-  </si>
-  <si>
-    <t>11.42(-25.88,48.73)</t>
-  </si>
-  <si>
-    <t>4.05(-3.59,11.68)</t>
-  </si>
-  <si>
-    <t>-6.67(-59.35,46.01)</t>
-  </si>
-  <si>
-    <t>-0.51(-3.26,2.24)</t>
-  </si>
-  <si>
-    <t>8.73(-108.13,125.6)</t>
-  </si>
-  <si>
-    <t>-12.06(-81.99,57.87)</t>
-  </si>
-  <si>
-    <t>-20.1(-96.86,56.66)</t>
-  </si>
-  <si>
-    <t>13.88(-53.06,80.82)</t>
-  </si>
-  <si>
-    <t>0.913</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>-436.98(-889.9,15.95)</t>
-  </si>
-  <si>
-    <t>-13.67(-71.54,44.19)</t>
-  </si>
-  <si>
-    <t>-68.98(-175.88,37.92)</t>
-  </si>
-  <si>
-    <t>54.62(-47.75,156.99)</t>
-  </si>
-  <si>
-    <t>7.07(-10.13,24.27)</t>
-  </si>
-  <si>
-    <t>20.13(2.02,38.24)</t>
-  </si>
-  <si>
-    <t>-1.1(-45.03,42.83)</t>
-  </si>
-  <si>
-    <t>-2.94(-12.15,6.27)</t>
-  </si>
-  <si>
-    <t>15.38(-45.49,76.24)</t>
-  </si>
-  <si>
-    <t>0.37(-2.9,3.64)</t>
-  </si>
-  <si>
-    <t>-118.09(-255.15,18.97)</t>
-  </si>
-  <si>
-    <t>-1.33(-84.25,81.59)</t>
-  </si>
-  <si>
-    <t>-39.75(-119.76,40.27)</t>
-  </si>
-  <si>
-    <t>60.92(-15.4,137.25)</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.031*</t>
-  </si>
-  <si>
-    <t>0.959</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.111</t>
+    <t>-4(-27.05,19.05)</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>-0.22(-13.57,13.13)</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>-25.11(-69.01,18.79)</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>-6.62(-33.57,20.32)</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>5.08(-11.4,21.56)</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>-51.8(-103.8,0.21)</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>5.78(-23.37,34.94)</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>9.92(-3.89,23.73)</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>-15.05(-58.57,28.48)</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>-10.53(-38.66,17.59)</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>-10.05(-27.63,7.53)</t>
+  </si>
+  <si>
+    <t>9.48(-43.74,62.71)</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>11.18(-16.28,38.63)</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>6.32(-7.36,20.01)</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Model </t>
+  </si>
+  <si>
+    <t>Model with stepwise selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1159,83 +1559,489 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="000000"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" t="s" s="12">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +2061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +2101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +2121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +2141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1355,12 +2161,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +2192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1438,7 +2244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +2270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +2296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1516,7 +2322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1542,7 +2348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +2374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +2400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1620,7 +2426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1646,7 +2452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +2478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +2504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1724,7 +2530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +2556,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +2582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +2608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +2634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1854,12 +2660,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="6">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1885,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1911,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1925,19 +2731,19 @@
         <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1951,19 +2757,19 @@
         <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1977,19 +2783,19 @@
         <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2003,19 +2809,19 @@
         <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2026,22 +2832,22 @@
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2052,22 +2858,22 @@
         <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2078,22 +2884,22 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2104,22 +2910,22 @@
         <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2130,22 +2936,22 @@
         <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2171,7 +2977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2182,22 +2988,22 @@
         <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2223,7 +3029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2234,22 +3040,22 @@
         <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2275,7 +3081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2286,22 +3092,22 @@
         <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2327,7 +3133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2338,27 +3144,27 @@
         <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2384,7 +3190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2410,33 +3216,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H61" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -2444,25 +3250,25 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2470,25 +3276,25 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2496,25 +3302,25 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -2522,25 +3328,25 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2548,25 +3354,25 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H66" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2574,25 +3380,25 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -2600,25 +3406,25 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -2626,25 +3432,25 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="G69" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -2652,25 +3458,25 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G70" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -2696,7 +3502,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2704,25 +3510,25 @@
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2748,7 +3554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2756,25 +3562,25 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H74" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -2800,7 +3606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2808,25 +3614,25 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -2852,7 +3658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2860,30 +3666,30 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H78" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -2935,33 +3741,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G85" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -2969,25 +3775,25 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F86" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G86" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -2995,25 +3801,25 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H87" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -3021,25 +3827,25 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E88" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G88" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3047,25 +3853,25 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H89" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -3073,25 +3879,25 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E90" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F90" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G90" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H90" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -3099,25 +3905,25 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E91" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G91" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -3125,25 +3931,25 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E92" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G92" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H92" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -3151,25 +3957,25 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F93" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="G93" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3177,25 +3983,25 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E94" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F94" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G94" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H94" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3221,7 +4027,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3229,25 +4035,25 @@
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E96" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="G96" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -3273,7 +4079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3281,25 +4087,25 @@
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G98" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H98" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -3325,7 +4131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3333,25 +4139,25 @@
         <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F100" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G100" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H100" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -3377,7 +4183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3385,25 +4191,1205 @@
         <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F102" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="G102" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H102" t="s">
-        <v>362</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>493</v>
+      </c>
+      <c r="E110" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>495</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>496</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" t="s">
+        <v>82</v>
+      </c>
+      <c r="F113" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113" t="s">
+        <v>108</v>
+      </c>
+      <c r="H113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" t="s">
+        <v>109</v>
+      </c>
+      <c r="H114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" t="s">
+        <v>110</v>
+      </c>
+      <c r="H115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" t="s">
+        <v>111</v>
+      </c>
+      <c r="H116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" t="s">
+        <v>112</v>
+      </c>
+      <c r="H117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" t="s">
+        <v>100</v>
+      </c>
+      <c r="G118" t="s">
+        <v>113</v>
+      </c>
+      <c r="H118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" t="s">
+        <v>114</v>
+      </c>
+      <c r="H119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" t="s">
+        <v>115</v>
+      </c>
+      <c r="H120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" t="s">
+        <v>103</v>
+      </c>
+      <c r="G121" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>77</v>
+      </c>
+      <c r="E122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" t="s">
+        <v>104</v>
+      </c>
+      <c r="G123" t="s">
+        <v>117</v>
+      </c>
+      <c r="H123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s">
+        <v>63</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" t="s">
+        <v>92</v>
+      </c>
+      <c r="F125" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" t="s">
+        <v>118</v>
+      </c>
+      <c r="H125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" t="s">
+        <v>63</v>
+      </c>
+      <c r="H126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" t="s">
+        <v>80</v>
+      </c>
+      <c r="E127" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" t="s">
+        <v>106</v>
+      </c>
+      <c r="G127" t="s">
+        <v>119</v>
+      </c>
+      <c r="H127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" t="s">
+        <v>77</v>
+      </c>
+      <c r="G128" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" t="s">
+        <v>120</v>
+      </c>
+      <c r="H129" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0850943-A57F-4A20-AA99-04A218FAFCEE}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>